--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il1b-Il1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il1b-Il1r1.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1378426666666667</v>
+        <v>3.473079333333333</v>
       </c>
       <c r="H2">
-        <v>0.413528</v>
+        <v>10.419238</v>
       </c>
       <c r="I2">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326942</v>
       </c>
       <c r="J2">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326943</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.785488</v>
+        <v>16.087096</v>
       </c>
       <c r="N2">
-        <v>53.356464</v>
+        <v>48.261288</v>
       </c>
       <c r="O2">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
       <c r="P2">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
       <c r="Q2">
-        <v>2.451599093888</v>
+        <v>55.87176065094933</v>
       </c>
       <c r="R2">
-        <v>22.064391844992</v>
+        <v>502.845845858544</v>
       </c>
       <c r="S2">
-        <v>4.308712277857236E-06</v>
+        <v>7.195383743196098E-05</v>
       </c>
       <c r="T2">
-        <v>4.308712277857236E-06</v>
+        <v>7.1953837431961E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>27</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1378426666666667</v>
+        <v>3.473079333333333</v>
       </c>
       <c r="H3">
-        <v>0.413528</v>
+        <v>10.419238</v>
       </c>
       <c r="I3">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326942</v>
       </c>
       <c r="J3">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326943</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>286.19445</v>
       </c>
       <c r="O3">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888087</v>
       </c>
       <c r="P3">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888088</v>
       </c>
       <c r="Q3">
-        <v>13.14993539106667</v>
+        <v>331.3253432032333</v>
       </c>
       <c r="R3">
-        <v>118.3494185196</v>
+        <v>2981.9280888291</v>
       </c>
       <c r="S3">
-        <v>2.311115557750601E-05</v>
+        <v>0.0004266937287133631</v>
       </c>
       <c r="T3">
-        <v>2.311115557750601E-05</v>
+        <v>0.0004266937287133633</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1378426666666667</v>
+        <v>3.473079333333333</v>
       </c>
       <c r="H4">
-        <v>0.413528</v>
+        <v>10.419238</v>
       </c>
       <c r="I4">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326942</v>
       </c>
       <c r="J4">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326943</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2910066666666667</v>
+        <v>0.5200936666666667</v>
       </c>
       <c r="N4">
-        <v>0.87302</v>
+        <v>1.560281</v>
       </c>
       <c r="O4">
-        <v>0.002354159251886579</v>
+        <v>0.004083440825819921</v>
       </c>
       <c r="P4">
-        <v>0.002354159251886578</v>
+        <v>0.004083440825819921</v>
       </c>
       <c r="Q4">
-        <v>0.04011313495111112</v>
+        <v>1.806326565097556</v>
       </c>
       <c r="R4">
-        <v>0.36101821456</v>
+        <v>16.256939085878</v>
       </c>
       <c r="S4">
-        <v>7.049927433000291E-08</v>
+        <v>2.326257961084203E-06</v>
       </c>
       <c r="T4">
-        <v>7.049927433000289E-08</v>
+        <v>2.326257961084203E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1378426666666667</v>
+        <v>3.473079333333333</v>
       </c>
       <c r="H5">
-        <v>0.413528</v>
+        <v>10.419238</v>
       </c>
       <c r="I5">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326942</v>
       </c>
       <c r="J5">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326943</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.332356333333335</v>
+        <v>14.15205133333333</v>
       </c>
       <c r="N5">
-        <v>27.997069</v>
+        <v>42.456154</v>
       </c>
       <c r="O5">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
       <c r="P5">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
       <c r="Q5">
-        <v>1.286396883270222</v>
+        <v>49.15119701007244</v>
       </c>
       <c r="R5">
-        <v>11.577571949432</v>
+        <v>442.360773090652</v>
       </c>
       <c r="S5">
-        <v>2.260856621689103E-06</v>
+        <v>6.329883286377064E-05</v>
       </c>
       <c r="T5">
-        <v>2.260856621689102E-06</v>
+        <v>6.329883286377066E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1378426666666667</v>
+        <v>3.473079333333333</v>
       </c>
       <c r="H6">
-        <v>0.413528</v>
+        <v>10.419238</v>
       </c>
       <c r="I6">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326942</v>
       </c>
       <c r="J6">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326943</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.58116</v>
+        <v>0.794831</v>
       </c>
       <c r="N6">
-        <v>1.74348</v>
+        <v>2.384493</v>
       </c>
       <c r="O6">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
       <c r="P6">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
       <c r="Q6">
-        <v>0.08010864416000001</v>
+        <v>2.760511119592667</v>
       </c>
       <c r="R6">
-        <v>0.72097779744</v>
+        <v>24.844600076334</v>
       </c>
       <c r="S6">
-        <v>1.407918201288326E-07</v>
+        <v>3.555094130095511E-06</v>
       </c>
       <c r="T6">
-        <v>1.407918201288326E-07</v>
+        <v>3.555094130095512E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1378426666666667</v>
+        <v>3.473079333333333</v>
       </c>
       <c r="H7">
-        <v>0.413528</v>
+        <v>10.419238</v>
       </c>
       <c r="I7">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326942</v>
       </c>
       <c r="J7">
-        <v>2.994668872698656E-05</v>
+        <v>0.0005696808305326943</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2256796666666666</v>
+        <v>0.4143026666666667</v>
       </c>
       <c r="N7">
-        <v>0.6770389999999999</v>
+        <v>1.242908</v>
       </c>
       <c r="O7">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
       <c r="P7">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
       <c r="Q7">
-        <v>0.03110828706577777</v>
+        <v>1.438906029344889</v>
       </c>
       <c r="R7">
-        <v>0.279974583592</v>
+        <v>12.950154264104</v>
       </c>
       <c r="S7">
-        <v>5.467315547537379E-08</v>
+        <v>1.853079432419702E-06</v>
       </c>
       <c r="T7">
-        <v>5.467315547537379E-08</v>
+        <v>1.853079432419702E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>204.139764</v>
+        <v>373.1989643333333</v>
       </c>
       <c r="H8">
-        <v>612.419292</v>
+        <v>1119.596893</v>
       </c>
       <c r="I8">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="J8">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.785488</v>
+        <v>16.087096</v>
       </c>
       <c r="N8">
-        <v>53.356464</v>
+        <v>48.261288</v>
       </c>
       <c r="O8">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
       <c r="P8">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
       <c r="Q8">
-        <v>3630.725322944832</v>
+        <v>6003.687566330908</v>
       </c>
       <c r="R8">
-        <v>32676.52790650349</v>
+        <v>54033.18809697818</v>
       </c>
       <c r="S8">
-        <v>0.006381039549043924</v>
+        <v>0.007731783536209713</v>
       </c>
       <c r="T8">
-        <v>0.006381039549043924</v>
+        <v>0.007731783536209713</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>204.139764</v>
+        <v>373.1989643333333</v>
       </c>
       <c r="H9">
-        <v>612.419292</v>
+        <v>1119.596893</v>
       </c>
       <c r="I9">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="J9">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>286.19445</v>
       </c>
       <c r="O9">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888087</v>
       </c>
       <c r="P9">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888088</v>
       </c>
       <c r="Q9">
-        <v>19474.5558270366</v>
+        <v>35602.49077931598</v>
       </c>
       <c r="R9">
-        <v>175271.0024433294</v>
+        <v>320422.4170138438</v>
       </c>
       <c r="S9">
-        <v>0.03422674531368633</v>
+        <v>0.04585027935152899</v>
       </c>
       <c r="T9">
-        <v>0.03422674531368633</v>
+        <v>0.04585027935152899</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>204.139764</v>
+        <v>373.1989643333333</v>
       </c>
       <c r="H10">
-        <v>612.419292</v>
+        <v>1119.596893</v>
       </c>
       <c r="I10">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="J10">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2910066666666667</v>
+        <v>0.5200936666666667</v>
       </c>
       <c r="N10">
-        <v>0.87302</v>
+        <v>1.560281</v>
       </c>
       <c r="O10">
-        <v>0.002354159251886579</v>
+        <v>0.004083440825819921</v>
       </c>
       <c r="P10">
-        <v>0.002354159251886578</v>
+        <v>0.004083440825819921</v>
       </c>
       <c r="Q10">
-        <v>59.40603225576001</v>
+        <v>194.0984177563259</v>
       </c>
       <c r="R10">
-        <v>534.6542903018401</v>
+        <v>1746.885759806933</v>
       </c>
       <c r="S10">
-        <v>0.0001044067527995545</v>
+        <v>0.0002499675298276504</v>
       </c>
       <c r="T10">
-        <v>0.0001044067527995544</v>
+        <v>0.0002499675298276504</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>204.139764</v>
+        <v>373.1989643333333</v>
       </c>
       <c r="H11">
-        <v>612.419292</v>
+        <v>1119.596893</v>
       </c>
       <c r="I11">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="J11">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.332356333333335</v>
+        <v>14.15205133333333</v>
       </c>
       <c r="N11">
-        <v>27.997069</v>
+        <v>42.456154</v>
       </c>
       <c r="O11">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
       <c r="P11">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
       <c r="Q11">
-        <v>1905.105019450572</v>
+        <v>5281.530900792169</v>
       </c>
       <c r="R11">
-        <v>17145.94517505515</v>
+        <v>47533.77810712952</v>
       </c>
       <c r="S11">
-        <v>0.003348242952274941</v>
+        <v>0.006801761952726668</v>
       </c>
       <c r="T11">
-        <v>0.003348242952274941</v>
+        <v>0.006801761952726668</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>204.139764</v>
+        <v>373.1989643333333</v>
       </c>
       <c r="H12">
-        <v>612.419292</v>
+        <v>1119.596893</v>
       </c>
       <c r="I12">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="J12">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.58116</v>
+        <v>0.794831</v>
       </c>
       <c r="N12">
-        <v>1.74348</v>
+        <v>2.384493</v>
       </c>
       <c r="O12">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
       <c r="P12">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
       <c r="Q12">
-        <v>118.63786524624</v>
+        <v>296.6301060200277</v>
       </c>
       <c r="R12">
-        <v>1067.74078721616</v>
+        <v>2669.670954180249</v>
       </c>
       <c r="S12">
-        <v>0.0002085073484810968</v>
+        <v>0.000382011846008074</v>
       </c>
       <c r="T12">
-        <v>0.0002085073484810968</v>
+        <v>0.000382011846008074</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>204.139764</v>
+        <v>373.1989643333333</v>
       </c>
       <c r="H13">
-        <v>612.419292</v>
+        <v>1119.596893</v>
       </c>
       <c r="I13">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="J13">
-        <v>0.04434991078699747</v>
+        <v>0.06121492645297708</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2256796666666666</v>
+        <v>0.4143026666666667</v>
       </c>
       <c r="N13">
-        <v>0.6770389999999999</v>
+        <v>1.242908</v>
       </c>
       <c r="O13">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
       <c r="P13">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
       <c r="Q13">
-        <v>46.070193892932</v>
+        <v>154.6173261205382</v>
       </c>
       <c r="R13">
-        <v>414.631745036388</v>
+        <v>1391.555935084844</v>
       </c>
       <c r="S13">
-        <v>8.09688707116189E-05</v>
+        <v>0.0001991222366759739</v>
       </c>
       <c r="T13">
-        <v>8.09688707116189E-05</v>
+        <v>0.0001991222366759739</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.04715733333333334</v>
+        <v>0.04715733333333333</v>
       </c>
       <c r="H14">
         <v>0.141472</v>
       </c>
       <c r="I14">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="J14">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.785488</v>
+        <v>16.087096</v>
       </c>
       <c r="N14">
-        <v>53.356464</v>
+        <v>48.261288</v>
       </c>
       <c r="O14">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
       <c r="P14">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
       <c r="Q14">
-        <v>0.8387161861120001</v>
+        <v>0.7586245484373332</v>
       </c>
       <c r="R14">
-        <v>7.548445675008002</v>
+        <v>6.827620935935999</v>
       </c>
       <c r="S14">
-        <v>1.474052889702799E-06</v>
+        <v>9.769863486345532E-07</v>
       </c>
       <c r="T14">
-        <v>1.474052889702799E-06</v>
+        <v>9.769863486345532E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.04715733333333334</v>
+        <v>0.04715733333333333</v>
       </c>
       <c r="H15">
         <v>0.141472</v>
       </c>
       <c r="I15">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="J15">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>286.19445</v>
       </c>
       <c r="O15">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888087</v>
       </c>
       <c r="P15">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888088</v>
       </c>
       <c r="Q15">
-        <v>4.498722358933334</v>
+        <v>4.498722358933333</v>
       </c>
       <c r="R15">
         <v>40.4885012304</v>
       </c>
       <c r="S15">
-        <v>7.906553853332617E-06</v>
+        <v>5.793630511994918E-06</v>
       </c>
       <c r="T15">
-        <v>7.906553853332617E-06</v>
+        <v>5.793630511994919E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.04715733333333334</v>
+        <v>0.04715733333333333</v>
       </c>
       <c r="H16">
         <v>0.141472</v>
       </c>
       <c r="I16">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="J16">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2910066666666667</v>
+        <v>0.5200936666666667</v>
       </c>
       <c r="N16">
-        <v>0.87302</v>
+        <v>1.560281</v>
       </c>
       <c r="O16">
-        <v>0.002354159251886579</v>
+        <v>0.004083440825819921</v>
       </c>
       <c r="P16">
-        <v>0.002354159251886578</v>
+        <v>0.004083440825819921</v>
       </c>
       <c r="Q16">
-        <v>0.01372309838222222</v>
+        <v>0.02452623040355555</v>
       </c>
       <c r="R16">
-        <v>0.12350788544</v>
+        <v>0.220736073632</v>
       </c>
       <c r="S16">
-        <v>2.41184958165207E-08</v>
+        <v>3.158583826096538E-08</v>
       </c>
       <c r="T16">
-        <v>2.411849581652069E-08</v>
+        <v>3.158583826096538E-08</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.04715733333333334</v>
+        <v>0.04715733333333333</v>
       </c>
       <c r="H17">
         <v>0.141472</v>
       </c>
       <c r="I17">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="J17">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.332356333333335</v>
+        <v>14.15205133333333</v>
       </c>
       <c r="N17">
-        <v>27.997069</v>
+        <v>42.456154</v>
       </c>
       <c r="O17">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
       <c r="P17">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
       <c r="Q17">
-        <v>0.4400890383964445</v>
+        <v>0.6673730020764443</v>
       </c>
       <c r="R17">
-        <v>3.960801345568001</v>
+        <v>6.006357018687999</v>
       </c>
       <c r="S17">
-        <v>7.734613085053508E-07</v>
+        <v>8.594690401451009E-07</v>
       </c>
       <c r="T17">
-        <v>7.734613085053508E-07</v>
+        <v>8.594690401451009E-07</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.04715733333333334</v>
+        <v>0.04715733333333333</v>
       </c>
       <c r="H18">
         <v>0.141472</v>
       </c>
       <c r="I18">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="J18">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.58116</v>
+        <v>0.794831</v>
       </c>
       <c r="N18">
-        <v>1.74348</v>
+        <v>2.384493</v>
       </c>
       <c r="O18">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
       <c r="P18">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
       <c r="Q18">
-        <v>0.02740595584</v>
+        <v>0.03748211041066666</v>
       </c>
       <c r="R18">
-        <v>0.24665360256</v>
+        <v>0.337338993696</v>
       </c>
       <c r="S18">
-        <v>4.816626776727624E-08</v>
+        <v>4.827092698841049E-08</v>
       </c>
       <c r="T18">
-        <v>4.816626776727624E-08</v>
+        <v>4.827092698841049E-08</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.04715733333333334</v>
+        <v>0.04715733333333333</v>
       </c>
       <c r="H19">
         <v>0.141472</v>
       </c>
       <c r="I19">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="J19">
-        <v>1.024505703987213E-05</v>
+        <v>7.735103705004273E-06</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2256796666666666</v>
+        <v>0.4143026666666667</v>
       </c>
       <c r="N19">
-        <v>0.6770389999999999</v>
+        <v>1.242908</v>
       </c>
       <c r="O19">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
       <c r="P19">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
       <c r="Q19">
-        <v>0.01064245126755555</v>
+        <v>0.01953740895288889</v>
       </c>
       <c r="R19">
-        <v>0.095782061408</v>
+        <v>0.175836680576</v>
       </c>
       <c r="S19">
-        <v>1.870422474756747E-08</v>
+        <v>2.516103898032467E-08</v>
       </c>
       <c r="T19">
-        <v>1.870422474756747E-08</v>
+        <v>2.516103898032467E-08</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4022.527425333334</v>
+        <v>5653.156087333333</v>
       </c>
       <c r="H20">
-        <v>12067.582276</v>
+        <v>16959.468262</v>
       </c>
       <c r="I20">
-        <v>0.8739048628065621</v>
+        <v>0.9272735650043724</v>
       </c>
       <c r="J20">
-        <v>0.873904862806562</v>
+        <v>0.9272735650043725</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.785488</v>
+        <v>16.087096</v>
       </c>
       <c r="N20">
-        <v>53.356464</v>
+        <v>48.261288</v>
       </c>
       <c r="O20">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
       <c r="P20">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
       <c r="Q20">
-        <v>71542.61325293691</v>
+        <v>90942.8646799157</v>
       </c>
       <c r="R20">
-        <v>643883.5192764321</v>
+        <v>818485.7821192414</v>
       </c>
       <c r="S20">
-        <v>0.1257369269230948</v>
+        <v>0.1171197761541151</v>
       </c>
       <c r="T20">
-        <v>0.1257369269230948</v>
+        <v>0.1171197761541151</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4022.527425333334</v>
+        <v>5653.156087333333</v>
       </c>
       <c r="H21">
-        <v>12067.582276</v>
+        <v>16959.468262</v>
       </c>
       <c r="I21">
-        <v>0.8739048628065621</v>
+        <v>0.9272735650043724</v>
       </c>
       <c r="J21">
-        <v>0.873904862806562</v>
+        <v>0.9272735650043725</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>286.19445</v>
       </c>
       <c r="O21">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888087</v>
       </c>
       <c r="P21">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888088</v>
       </c>
       <c r="Q21">
-        <v>383741.6747010632</v>
+        <v>539300.6323928384</v>
       </c>
       <c r="R21">
-        <v>3453675.072309569</v>
+        <v>4853705.691535546</v>
       </c>
       <c r="S21">
-        <v>0.674430199224696</v>
+        <v>0.6945324360292681</v>
       </c>
       <c r="T21">
-        <v>0.6744301992246959</v>
+        <v>0.6945324360292683</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4022.527425333334</v>
+        <v>5653.156087333333</v>
       </c>
       <c r="H22">
-        <v>12067.582276</v>
+        <v>16959.468262</v>
       </c>
       <c r="I22">
-        <v>0.8739048628065621</v>
+        <v>0.9272735650043724</v>
       </c>
       <c r="J22">
-        <v>0.873904862806562</v>
+        <v>0.9272735650043725</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2910066666666667</v>
+        <v>0.5200936666666667</v>
       </c>
       <c r="N22">
-        <v>0.87302</v>
+        <v>1.560281</v>
       </c>
       <c r="O22">
-        <v>0.002354159251886579</v>
+        <v>0.004083440825819921</v>
       </c>
       <c r="P22">
-        <v>0.002354159251886578</v>
+        <v>0.004083440825819921</v>
       </c>
       <c r="Q22">
-        <v>1170.582297621502</v>
+        <v>2940.17067770018</v>
       </c>
       <c r="R22">
-        <v>10535.24067859352</v>
+        <v>26461.53609930162</v>
       </c>
       <c r="S22">
-        <v>0.002057311218044739</v>
+        <v>0.003786466732042437</v>
       </c>
       <c r="T22">
-        <v>0.002057311218044739</v>
+        <v>0.003786466732042437</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4022.527425333334</v>
+        <v>5653.156087333333</v>
       </c>
       <c r="H23">
-        <v>12067.582276</v>
+        <v>16959.468262</v>
       </c>
       <c r="I23">
-        <v>0.8739048628065621</v>
+        <v>0.9272735650043724</v>
       </c>
       <c r="J23">
-        <v>0.873904862806562</v>
+        <v>0.9272735650043725</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.332356333333335</v>
+        <v>14.15205133333333</v>
       </c>
       <c r="N23">
-        <v>27.997069</v>
+        <v>42.456154</v>
       </c>
       <c r="O23">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
       <c r="P23">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
       <c r="Q23">
-        <v>37539.65929381657</v>
+        <v>80003.75514328714</v>
       </c>
       <c r="R23">
-        <v>337856.9336443491</v>
+        <v>720033.7962895843</v>
       </c>
       <c r="S23">
-        <v>0.06597636265615062</v>
+        <v>0.1030319632755064</v>
       </c>
       <c r="T23">
-        <v>0.0659763626561506</v>
+        <v>0.1030319632755064</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4022.527425333334</v>
+        <v>5653.156087333333</v>
       </c>
       <c r="H24">
-        <v>12067.582276</v>
+        <v>16959.468262</v>
       </c>
       <c r="I24">
-        <v>0.8739048628065621</v>
+        <v>0.9272735650043724</v>
       </c>
       <c r="J24">
-        <v>0.873904862806562</v>
+        <v>0.9272735650043725</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.58116</v>
+        <v>0.794831</v>
       </c>
       <c r="N24">
-        <v>1.74348</v>
+        <v>2.384493</v>
       </c>
       <c r="O24">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
       <c r="P24">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
       <c r="Q24">
-        <v>2337.73203850672</v>
+        <v>4493.30370605124</v>
       </c>
       <c r="R24">
-        <v>21039.58834656048</v>
+        <v>40439.73335446116</v>
       </c>
       <c r="S24">
-        <v>0.004108589680003483</v>
+        <v>0.00578665215899448</v>
       </c>
       <c r="T24">
-        <v>0.004108589680003483</v>
+        <v>0.00578665215899448</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4022.527425333334</v>
+        <v>5653.156087333333</v>
       </c>
       <c r="H25">
-        <v>12067.582276</v>
+        <v>16959.468262</v>
       </c>
       <c r="I25">
-        <v>0.8739048628065621</v>
+        <v>0.9272735650043724</v>
       </c>
       <c r="J25">
-        <v>0.873904862806562</v>
+        <v>0.9272735650043725</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2256796666666666</v>
+        <v>0.4143026666666667</v>
       </c>
       <c r="N25">
-        <v>0.6770389999999999</v>
+        <v>1.242908</v>
       </c>
       <c r="O25">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
       <c r="P25">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
       <c r="Q25">
-        <v>907.8026485067516</v>
+        <v>2342.117642065099</v>
       </c>
       <c r="R25">
-        <v>8170.223836560764</v>
+        <v>21079.05877858589</v>
       </c>
       <c r="S25">
-        <v>0.001595473104572395</v>
+        <v>0.003016270654445834</v>
       </c>
       <c r="T25">
-        <v>0.001595473104572394</v>
+        <v>0.003016270654445834</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>376.0829773333333</v>
+        <v>66.66008233333334</v>
       </c>
       <c r="H26">
-        <v>1128.248932</v>
+        <v>199.980247</v>
       </c>
       <c r="I26">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="J26">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.785488</v>
+        <v>16.087096</v>
       </c>
       <c r="N26">
-        <v>53.356464</v>
+        <v>48.261288</v>
       </c>
       <c r="O26">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
       <c r="P26">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
       <c r="Q26">
-        <v>6688.819280366271</v>
+        <v>1072.367143864237</v>
       </c>
       <c r="R26">
-        <v>60199.37352329645</v>
+        <v>9651.304294778138</v>
       </c>
       <c r="S26">
-        <v>0.01175567319694848</v>
+        <v>0.001381036327439819</v>
       </c>
       <c r="T26">
-        <v>0.01175567319694848</v>
+        <v>0.001381036327439819</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>376.0829773333333</v>
+        <v>66.66008233333334</v>
       </c>
       <c r="H27">
-        <v>1128.248932</v>
+        <v>199.980247</v>
       </c>
       <c r="I27">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="J27">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>286.19445</v>
       </c>
       <c r="O27">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888087</v>
       </c>
       <c r="P27">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888088</v>
       </c>
       <c r="Q27">
-        <v>35877.62028409193</v>
+        <v>6359.248533447683</v>
       </c>
       <c r="R27">
-        <v>322898.5825568274</v>
+        <v>57233.23680102916</v>
       </c>
       <c r="S27">
-        <v>0.06305531088005406</v>
+        <v>0.008189688848786193</v>
       </c>
       <c r="T27">
-        <v>0.06305531088005406</v>
+        <v>0.008189688848786195</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>376.0829773333333</v>
+        <v>66.66008233333334</v>
       </c>
       <c r="H28">
-        <v>1128.248932</v>
+        <v>199.980247</v>
       </c>
       <c r="I28">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="J28">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2910066666666667</v>
+        <v>0.5200936666666667</v>
       </c>
       <c r="N28">
-        <v>0.87302</v>
+        <v>1.560281</v>
       </c>
       <c r="O28">
-        <v>0.002354159251886579</v>
+        <v>0.004083440825819921</v>
       </c>
       <c r="P28">
-        <v>0.002354159251886578</v>
+        <v>0.004083440825819921</v>
       </c>
       <c r="Q28">
-        <v>109.4426536238489</v>
+        <v>34.66948664104522</v>
       </c>
       <c r="R28">
-        <v>984.98388261464</v>
+        <v>312.025379769407</v>
       </c>
       <c r="S28">
-        <v>0.0001923466632721383</v>
+        <v>4.464872015048849E-05</v>
       </c>
       <c r="T28">
-        <v>0.0001923466632721382</v>
+        <v>4.464872015048849E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>376.0829773333333</v>
+        <v>66.66008233333334</v>
       </c>
       <c r="H29">
-        <v>1128.248932</v>
+        <v>199.980247</v>
       </c>
       <c r="I29">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="J29">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>9.332356333333335</v>
+        <v>14.15205133333333</v>
       </c>
       <c r="N29">
-        <v>27.997069</v>
+        <v>42.456154</v>
       </c>
       <c r="O29">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
       <c r="P29">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
       <c r="Q29">
-        <v>3509.74035537559</v>
+        <v>943.3769070655597</v>
       </c>
       <c r="R29">
-        <v>31587.66319838031</v>
+        <v>8490.392163590039</v>
       </c>
       <c r="S29">
-        <v>0.00616840714250512</v>
+        <v>0.001214917658173138</v>
       </c>
       <c r="T29">
-        <v>0.00616840714250512</v>
+        <v>0.001214917658173138</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>376.0829773333333</v>
+        <v>66.66008233333334</v>
       </c>
       <c r="H30">
-        <v>1128.248932</v>
+        <v>199.980247</v>
       </c>
       <c r="I30">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="J30">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.58116</v>
+        <v>0.794831</v>
       </c>
       <c r="N30">
-        <v>1.74348</v>
+        <v>2.384493</v>
       </c>
       <c r="O30">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
       <c r="P30">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
       <c r="Q30">
-        <v>218.56438310704</v>
+        <v>52.98349990108566</v>
       </c>
       <c r="R30">
-        <v>1967.07944796336</v>
+        <v>476.8514991097711</v>
       </c>
       <c r="S30">
-        <v>0.0003841292988496341</v>
+        <v>6.823422233418131E-05</v>
       </c>
       <c r="T30">
-        <v>0.0003841292988496341</v>
+        <v>6.823422233418131E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>376.0829773333333</v>
+        <v>66.66008233333334</v>
       </c>
       <c r="H31">
-        <v>1128.248932</v>
+        <v>199.980247</v>
       </c>
       <c r="I31">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="J31">
-        <v>0.08170503466067357</v>
+        <v>0.01093409260841276</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.2256796666666666</v>
+        <v>0.4143026666666667</v>
       </c>
       <c r="N31">
-        <v>0.6770389999999999</v>
+        <v>1.242908</v>
       </c>
       <c r="O31">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
       <c r="P31">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
       <c r="Q31">
-        <v>84.8742809635942</v>
+        <v>27.61744987091955</v>
       </c>
       <c r="R31">
-        <v>763.8685286723479</v>
+        <v>248.557048838276</v>
       </c>
       <c r="S31">
-        <v>0.0001491674790441286</v>
+        <v>3.556683152893827E-05</v>
       </c>
       <c r="T31">
-        <v>0.0001491674790441286</v>
+        <v>3.556683152893828E-05</v>
       </c>
     </row>
   </sheetData>
